--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/Tổng hợp lương nhân viên tại SÓC TRĂNG 7-2024.xlsx.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/Tổng hợp lương nhân viên tại SÓC TRĂNG 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9047142.857142858</v>
+        <v>4632500</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4587210.714285715</v>
+        <v>5143192.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3371428.571428571</v>
+        <v>2835714.285714285</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2660000</v>
+        <v>-3500000</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3411428.571428571</v>
+        <v>3695714.285714286</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>17757210.71428571</v>
+        <v>12807121.42857143</v>
       </c>
     </row>
   </sheetData>
